--- a/Team-Data/2008-09/1-10-2008-09.xlsx
+++ b/Team-Data/2008-09/1-10-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,19 +811,19 @@
         <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
@@ -765,7 +832,7 @@
         <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -777,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP2" t="n">
         <v>16</v>
@@ -789,22 +856,22 @@
         <v>18</v>
       </c>
       <c r="AS2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW2" t="n">
         <v>22</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -816,7 +883,7 @@
         <v>22</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -848,88 +915,88 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.757</v>
+        <v>0.763</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J3" t="n">
-        <v>76.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L3" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.365</v>
+        <v>0.361</v>
       </c>
       <c r="O3" t="n">
         <v>21.3</v>
       </c>
       <c r="P3" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
         <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="V3" t="n">
         <v>16.2</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="AA3" t="n">
         <v>23.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
         <v>4</v>
@@ -938,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -965,28 +1032,28 @@
         <v>4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT3" t="n">
         <v>6</v>
       </c>
-      <c r="AT3" t="n">
-        <v>5</v>
-      </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -1030,70 +1097,70 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>0.368</v>
+        <v>0.351</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="J4" t="n">
-        <v>75.5</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.444</v>
       </c>
       <c r="L4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M4" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.352</v>
+        <v>0.349</v>
       </c>
       <c r="O4" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P4" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R4" t="n">
         <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="T4" t="n">
-        <v>38.6</v>
+        <v>38.8</v>
       </c>
       <c r="U4" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V4" t="n">
         <v>15.7</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
         <v>4.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z4" t="n">
         <v>21.9</v>
@@ -1105,10 +1172,10 @@
         <v>91.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3</v>
+        <v>-3.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1117,10 +1184,10 @@
         <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
@@ -1138,34 +1205,34 @@
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
         <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ4" t="n">
         <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX4" t="n">
         <v>21</v>
@@ -1183,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -1215,25 +1282,25 @@
         <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.417</v>
+        <v>0.444</v>
       </c>
       <c r="H5" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="L5" t="n">
         <v>6.4</v>
@@ -1242,67 +1309,67 @@
         <v>16.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O5" t="n">
-        <v>18.6</v>
+        <v>19.1</v>
       </c>
       <c r="P5" t="n">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.801</v>
+        <v>0.8</v>
       </c>
       <c r="R5" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S5" t="n">
         <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U5" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y5" t="n">
         <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.3</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.8</v>
+        <v>-3.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
@@ -1311,37 +1378,37 @@
         <v>4</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
         <v>16</v>
       </c>
       <c r="AM5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP5" t="n">
         <v>19</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AQ5" t="n">
         <v>7</v>
       </c>
-      <c r="AO5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>6</v>
-      </c>
       <c r="AR5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS5" t="n">
         <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AV5" t="n">
         <v>19</v>
@@ -1356,16 +1423,16 @@
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA5" t="n">
         <v>23</v>
       </c>
-      <c r="BA5" t="n">
-        <v>24</v>
-      </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -1394,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n">
         <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>0.853</v>
+        <v>0.829</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.481</v>
+        <v>0.48</v>
       </c>
       <c r="L6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.353</v>
+        <v>0.35</v>
       </c>
       <c r="O6" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="P6" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R6" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T6" t="n">
         <v>41.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V6" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="W6" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X6" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.9</v>
+        <v>101.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1484,10 +1551,10 @@
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ6" t="n">
         <v>24</v>
@@ -1496,25 +1563,25 @@
         <v>2</v>
       </c>
       <c r="AL6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
         <v>7</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="n">
         <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
         <v>15</v>
       </c>
       <c r="AR6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1526,7 +1593,7 @@
         <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
         <v>6</v>
@@ -1535,16 +1602,16 @@
         <v>3</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB6" t="n">
         <v>8</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>7</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -1654,25 +1721,25 @@
         <v>1.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK7" t="n">
         <v>17</v>
@@ -1684,7 +1751,7 @@
         <v>5</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>28</v>
@@ -1702,16 +1769,16 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1903,13 @@
         <v>3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
         <v>7</v>
@@ -1866,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>25</v>
@@ -1902,7 +1969,7 @@
         <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA8" t="n">
         <v>4</v>
@@ -1911,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -1940,64 +2007,64 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="n">
         <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>0.629</v>
+        <v>0.647</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="J9" t="n">
         <v>78.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.454</v>
+        <v>0.456</v>
       </c>
       <c r="L9" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M9" t="n">
         <v>13.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.346</v>
+        <v>0.35</v>
       </c>
       <c r="O9" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="P9" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.753</v>
+        <v>0.751</v>
       </c>
       <c r="R9" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S9" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="T9" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U9" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="V9" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W9" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X9" t="n">
         <v>5.3</v>
@@ -2009,16 +2076,16 @@
         <v>21.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>94.09999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
         <v>8</v>
@@ -2039,7 +2106,7 @@
         <v>20</v>
       </c>
       <c r="AK9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
@@ -2048,34 +2115,34 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP9" t="n">
         <v>20</v>
       </c>
-      <c r="AO9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT9" t="n">
         <v>18</v>
       </c>
-      <c r="AS9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>20</v>
-      </c>
       <c r="AU9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
         <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX9" t="n">
         <v>10</v>
@@ -2087,13 +2154,13 @@
         <v>19</v>
       </c>
       <c r="BA9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB9" t="n">
         <v>26</v>
       </c>
       <c r="BC9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>0.263</v>
+        <v>0.27</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2140,70 +2207,70 @@
         <v>38.5</v>
       </c>
       <c r="J10" t="n">
-        <v>86</v>
+        <v>86.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
       <c r="L10" t="n">
         <v>6.3</v>
       </c>
       <c r="M10" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N10" t="n">
         <v>0.341</v>
       </c>
       <c r="O10" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="P10" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R10" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S10" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="T10" t="n">
-        <v>42</v>
+        <v>42.3</v>
       </c>
       <c r="U10" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V10" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W10" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X10" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y10" t="n">
         <v>5.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-6.2</v>
+        <v>-6</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF10" t="n">
         <v>26</v>
@@ -2212,7 +2279,7 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2221,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
         <v>18</v>
@@ -2230,7 +2297,7 @@
         <v>14</v>
       </c>
       <c r="AN10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO10" t="n">
         <v>2</v>
@@ -2242,16 +2309,16 @@
         <v>16</v>
       </c>
       <c r="AR10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS10" t="n">
         <v>24</v>
       </c>
       <c r="AT10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AV10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" t="n">
         <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>0.615</v>
+        <v>0.605</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J11" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="K11" t="n">
         <v>0.438</v>
@@ -2331,28 +2398,28 @@
         <v>7.3</v>
       </c>
       <c r="M11" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.371</v>
+        <v>0.373</v>
       </c>
       <c r="O11" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="P11" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R11" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S11" t="n">
-        <v>32.3</v>
+        <v>31.9</v>
       </c>
       <c r="T11" t="n">
-        <v>42.8</v>
+        <v>42.4</v>
       </c>
       <c r="U11" t="n">
         <v>19.9</v>
@@ -2370,31 +2437,31 @@
         <v>5.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="AA11" t="n">
         <v>21.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
         <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
@@ -2412,10 +2479,10 @@
         <v>10</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP11" t="n">
         <v>15</v>
@@ -2424,22 +2491,22 @@
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AU11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2451,7 +2518,7 @@
         <v>3</v>
       </c>
       <c r="BA11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB11" t="n">
         <v>20</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -2564,16 +2631,16 @@
         <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
         <v>3</v>
@@ -2585,10 +2652,10 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM12" t="n">
         <v>8</v>
@@ -2597,7 +2664,7 @@
         <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP12" t="n">
         <v>25</v>
@@ -2633,7 +2700,7 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB12" t="n">
         <v>4</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>-7.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
       </c>
       <c r="AF13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG13" t="n">
         <v>27</v>
@@ -2773,7 +2840,7 @@
         <v>24</v>
       </c>
       <c r="AM13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN13" t="n">
         <v>28</v>
@@ -2791,19 +2858,19 @@
         <v>7</v>
       </c>
       <c r="AS13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU13" t="n">
         <v>29</v>
       </c>
       <c r="AV13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2815,7 +2882,7 @@
         <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.824</v>
+        <v>0.829</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
@@ -2868,7 +2935,7 @@
         <v>39.6</v>
       </c>
       <c r="J14" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.474</v>
@@ -2877,76 +2944,76 @@
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.369</v>
+        <v>0.375</v>
       </c>
       <c r="O14" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="P14" t="n">
-        <v>28.4</v>
+        <v>28.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R14" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S14" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3</v>
+        <v>44.5</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
         <v>14</v>
       </c>
       <c r="W14" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.1</v>
+        <v>107.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AD14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="n">
         <v>27</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>28</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK14" t="n">
         <v>5</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2967,16 +3034,16 @@
         <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -2985,16 +3052,16 @@
         <v>12</v>
       </c>
       <c r="AW14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
         <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
@@ -3119,7 +3186,7 @@
         <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
         <v>7</v>
@@ -3143,19 +3210,19 @@
         <v>26</v>
       </c>
       <c r="AO15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP15" t="n">
         <v>14</v>
       </c>
-      <c r="AP15" t="n">
-        <v>13</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
         <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT15" t="n">
         <v>30</v>
@@ -3167,13 +3234,13 @@
         <v>16</v>
       </c>
       <c r="AW15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ15" t="n">
         <v>20</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3304,16 +3371,16 @@
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
         <v>15</v>
@@ -3322,7 +3389,7 @@
         <v>11</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
@@ -3334,7 +3401,7 @@
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS16" t="n">
         <v>21</v>
@@ -3361,7 +3428,7 @@
         <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
         <v>22</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -3411,70 +3478,70 @@
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J17" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L17" t="n">
         <v>5.3</v>
       </c>
       <c r="M17" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="N17" t="n">
         <v>0.344</v>
       </c>
       <c r="O17" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="P17" t="n">
         <v>25.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.779</v>
+        <v>0.777</v>
       </c>
       <c r="R17" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="S17" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="T17" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U17" t="n">
         <v>21</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W17" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
@@ -3489,49 +3556,49 @@
         <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL17" t="n">
         <v>21</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>23</v>
       </c>
       <c r="AM17" t="n">
         <v>24</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
         <v>10</v>
       </c>
       <c r="AR17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AT17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU17" t="n">
         <v>12</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3546,10 +3613,10 @@
         <v>6</v>
       </c>
       <c r="BB17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
         <v>25</v>
       </c>
       <c r="G18" t="n">
-        <v>0.306</v>
+        <v>0.286</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
@@ -3596,25 +3663,25 @@
         <v>36.4</v>
       </c>
       <c r="J18" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K18" t="n">
         <v>0.437</v>
       </c>
       <c r="L18" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="M18" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.345</v>
+        <v>0.335</v>
       </c>
       <c r="O18" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P18" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q18" t="n">
         <v>0.76</v>
@@ -3626,52 +3693,52 @@
         <v>29.8</v>
       </c>
       <c r="T18" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U18" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V18" t="n">
         <v>14.4</v>
       </c>
       <c r="W18" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z18" t="n">
         <v>22.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4.1</v>
+        <v>-4.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF18" t="n">
         <v>24</v>
       </c>
       <c r="AG18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH18" t="n">
         <v>5</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
@@ -3680,13 +3747,13 @@
         <v>28</v>
       </c>
       <c r="AL18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM18" t="n">
         <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
         <v>10</v>
@@ -3695,10 +3762,10 @@
         <v>9</v>
       </c>
       <c r="AQ18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS18" t="n">
         <v>22</v>
@@ -3707,16 +3774,16 @@
         <v>12</v>
       </c>
       <c r="AU18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>15</v>
       </c>
       <c r="AW18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
@@ -3725,7 +3792,7 @@
         <v>24</v>
       </c>
       <c r="BA18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3883,7 +3950,7 @@
         <v>14</v>
       </c>
       <c r="AS19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT19" t="n">
         <v>17</v>
@@ -3907,10 +3974,10 @@
         <v>27</v>
       </c>
       <c r="BA19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC19" t="n">
         <v>18</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4053,7 +4120,7 @@
         <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
@@ -4068,10 +4135,10 @@
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
@@ -4080,7 +4147,7 @@
         <v>8</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY20" t="n">
         <v>3</v>
@@ -4089,7 +4156,7 @@
         <v>15</v>
       </c>
       <c r="BA20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB20" t="n">
         <v>23</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" t="n">
-        <v>0.371</v>
+        <v>0.382</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>37.4</v>
+        <v>37.7</v>
       </c>
       <c r="J21" t="n">
-        <v>86.59999999999999</v>
+        <v>86.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.432</v>
+        <v>0.434</v>
       </c>
       <c r="L21" t="n">
         <v>10.4</v>
@@ -4154,37 +4221,37 @@
         <v>29.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O21" t="n">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
       <c r="P21" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8</v>
+        <v>0.801</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
         <v>31.6</v>
       </c>
       <c r="T21" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U21" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="V21" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W21" t="n">
         <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y21" t="n">
         <v>5.5</v>
@@ -4193,22 +4260,22 @@
         <v>20</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.6</v>
+        <v>18.9</v>
       </c>
       <c r="AB21" t="n">
-        <v>102.9</v>
+        <v>103.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.8</v>
+        <v>-3.3</v>
       </c>
       <c r="AD21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE21" t="n">
         <v>21</v>
       </c>
-      <c r="AE21" t="n">
-        <v>22</v>
-      </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
         <v>21</v>
@@ -4217,7 +4284,7 @@
         <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
@@ -4235,31 +4302,31 @@
         <v>16</v>
       </c>
       <c r="AO21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU21" t="n">
         <v>10</v>
       </c>
       <c r="AV21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4271,7 +4338,7 @@
         <v>7</v>
       </c>
       <c r="BA21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -4306,85 +4373,85 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>32</v>
       </c>
       <c r="G22" t="n">
-        <v>0.158</v>
+        <v>0.135</v>
       </c>
       <c r="H22" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J22" t="n">
-        <v>82</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L22" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>10.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.366</v>
+        <v>0.373</v>
       </c>
       <c r="O22" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="P22" t="n">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.757</v>
+        <v>0.754</v>
       </c>
       <c r="R22" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="S22" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T22" t="n">
-        <v>42.1</v>
+        <v>41.7</v>
       </c>
       <c r="U22" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="V22" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W22" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X22" t="n">
         <v>4.7</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Z22" t="n">
         <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>94.90000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4396,16 +4463,16 @@
         <v>30</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
         <v>29</v>
@@ -4414,46 +4481,46 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP22" t="n">
         <v>18</v>
       </c>
       <c r="AQ22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
         <v>12</v>
       </c>
       <c r="AT22" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AU22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AX22" t="n">
         <v>20</v>
       </c>
       <c r="AY22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ22" t="n">
         <v>14</v>
       </c>
       <c r="BA22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB22" t="n">
         <v>25</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>1</v>
@@ -4587,7 +4654,7 @@
         <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4599,7 +4666,7 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP23" t="n">
         <v>7</v>
@@ -4620,7 +4687,7 @@
         <v>28</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>18</v>
@@ -4760,7 +4827,7 @@
         <v>18</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>12</v>
@@ -4781,10 +4848,10 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4793,28 +4860,28 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU24" t="n">
         <v>19</v>
       </c>
       <c r="AV24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW24" t="n">
         <v>10</v>
       </c>
       <c r="AX24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA24" t="n">
         <v>19</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -4936,10 +5003,10 @@
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
         <v>20</v>
@@ -4963,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="AO25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP25" t="n">
         <v>6</v>
@@ -4978,7 +5045,7 @@
         <v>9</v>
       </c>
       <c r="AT25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU25" t="n">
         <v>11</v>
@@ -4987,7 +5054,7 @@
         <v>28</v>
       </c>
       <c r="AW25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX25" t="n">
         <v>18</v>
@@ -4996,7 +5063,7 @@
         <v>7</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -5037,103 +5104,103 @@
         <v>35</v>
       </c>
       <c r="E26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.629</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.3</v>
+        <v>35.9</v>
       </c>
       <c r="J26" t="n">
-        <v>78.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.46</v>
+        <v>0.456</v>
       </c>
       <c r="L26" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M26" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.384</v>
+        <v>0.387</v>
       </c>
       <c r="O26" t="n">
-        <v>18.4</v>
+        <v>17.9</v>
       </c>
       <c r="P26" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.774</v>
+        <v>0.768</v>
       </c>
       <c r="R26" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="S26" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="T26" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V26" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W26" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AJ26" t="n">
         <v>19</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AL26" t="n">
         <v>6</v>
@@ -5142,16 +5209,16 @@
         <v>9</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AP26" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AQ26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5169,25 +5236,25 @@
         <v>3</v>
       </c>
       <c r="AW26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
         <v>13</v>
       </c>
       <c r="BA26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-8.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG27" t="n">
         <v>28</v>
@@ -5345,16 +5412,16 @@
         <v>26</v>
       </c>
       <c r="AU27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>16</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5491,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
         <v>17</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5527,7 +5594,7 @@
         <v>24</v>
       </c>
       <c r="AU28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -5658,40 +5725,40 @@
         <v>-2.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>18</v>
       </c>
       <c r="AF29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
         <v>19</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ29" t="n">
         <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>17</v>
       </c>
       <c r="AM29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN29" t="n">
         <v>8</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
         <v>24</v>
@@ -5715,10 +5782,10 @@
         <v>10</v>
       </c>
       <c r="AW29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY29" t="n">
         <v>13</v>
@@ -5727,10 +5794,10 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F30" t="n">
         <v>15</v>
       </c>
       <c r="G30" t="n">
-        <v>0.595</v>
+        <v>0.583</v>
       </c>
       <c r="H30" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I30" t="n">
         <v>38</v>
       </c>
       <c r="J30" t="n">
-        <v>79.8</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L30" t="n">
         <v>4.3</v>
@@ -5792,58 +5859,58 @@
         <v>12.9</v>
       </c>
       <c r="N30" t="n">
-        <v>0.336</v>
+        <v>0.333</v>
       </c>
       <c r="O30" t="n">
         <v>21.1</v>
       </c>
       <c r="P30" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="Q30" t="n">
         <v>0.767</v>
       </c>
       <c r="R30" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="S30" t="n">
         <v>30</v>
       </c>
       <c r="T30" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U30" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="V30" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W30" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y30" t="n">
         <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB30" t="n">
         <v>101.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>13</v>
@@ -5852,7 +5919,7 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI30" t="n">
         <v>5</v>
@@ -5879,16 +5946,16 @@
         <v>5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AS30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5897,7 +5964,7 @@
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX30" t="n">
         <v>17</v>
@@ -5912,10 +5979,10 @@
         <v>3</v>
       </c>
       <c r="BB30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC30" t="n">
         <v>8</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>7</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
@@ -5944,67 +6011,67 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.194</v>
+        <v>0.2</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J31" t="n">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="K31" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>16.2</v>
+        <v>16.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.304</v>
+        <v>0.303</v>
       </c>
       <c r="O31" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P31" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R31" t="n">
         <v>11.6</v>
       </c>
       <c r="S31" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="T31" t="n">
-        <v>39.8</v>
+        <v>40</v>
       </c>
       <c r="U31" t="n">
         <v>20.3</v>
       </c>
       <c r="V31" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W31" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X31" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y31" t="n">
         <v>5.2</v>
@@ -6013,43 +6080,43 @@
         <v>20.5</v>
       </c>
       <c r="AA31" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-6.7</v>
+      </c>
+      <c r="AD31" t="n">
         <v>19</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>-6.6</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>14</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
       </c>
       <c r="AM31" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AN31" t="n">
         <v>30</v>
@@ -6058,16 +6125,16 @@
         <v>29</v>
       </c>
       <c r="AP31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT31" t="n">
         <v>25</v>
@@ -6082,16 +6149,16 @@
         <v>9</v>
       </c>
       <c r="AX31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AY31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ31" t="n">
         <v>11</v>
       </c>
       <c r="BA31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-10-2008-09</t>
+          <t>2009-01-10</t>
         </is>
       </c>
     </row>
